--- a/4.项目提交制品/4.8软件工程实验追踪与分析/H-EasySpider-贡献率统计.xlsx
+++ b/4.项目提交制品/4.8软件工程实验追踪与分析/H-EasySpider-贡献率统计.xlsx
@@ -762,11 +762,21 @@
         <v>11</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="E6" s="1">
+        <v>2327</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2631</v>
+      </c>
+      <c r="G6" s="5">
+        <v>7178</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4982</v>
+      </c>
+      <c r="I6" s="5">
+        <v>12905</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
@@ -815,7 +825,7 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="2">
-        <v>1788</v>
+        <v>2092</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -915,7 +925,9 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
@@ -978,22 +990,22 @@
         <v>24</v>
       </c>
       <c r="D20" s="8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E20" s="3">
-        <v>1756</v>
+        <v>2182</v>
       </c>
       <c r="F20" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G20" s="3">
-        <v>730</v>
+        <v>1387</v>
       </c>
       <c r="H20" s="3">
-        <v>608</v>
+        <v>231</v>
       </c>
       <c r="I20" s="3">
-        <v>197</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1006,17 +1018,17 @@
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F21" s="1">
-        <v>1516</v>
+        <v>1267</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="I21" s="5">
-        <v>1859</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1030,12 +1042,12 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1">
-        <v>713</v>
+        <v>768</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1">
-        <v>303</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1047,16 +1059,14 @@
       <c r="D23" s="7">
         <v>1</v>
       </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2">
-        <v>182</v>
+        <v>405</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2">
-        <v>209</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1085,7 +1095,9 @@
         <v>8</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="5">
+        <v>2</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1126,9 +1138,13 @@
         <v>11</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
@@ -1157,7 +1173,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1181,7 +1197,7 @@
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1224,23 +1240,23 @@
       <c r="D34" s="12"/>
       <c r="E34">
         <f>SUM(E2:E10)+SUM(E11:E19)*$L$4+SUM(E20*$D20,E21*$D21,E22*$D22,E23*$D23)*$L$5</f>
-        <v>47103</v>
+        <v>47494</v>
       </c>
       <c r="F34">
         <f>SUM(F2:F10)+SUM(F11:F19)*$L$4+SUM(F20*$D20,F21*$D21,F22*$D22,F23*$D23)*$L$5</f>
-        <v>28597</v>
+        <v>31513</v>
       </c>
       <c r="G34">
         <f>SUM(G2:G10)+SUM(G11:G19)*$L$4+SUM(G20*$D20,G21*$D21,G22*$D22,G23*$D23)*$L$5</f>
-        <v>24536</v>
+        <v>37919</v>
       </c>
       <c r="H34">
         <f>SUM(H2:H10)+SUM(H11:H19)*$L$4+SUM(H20*$D20,H21*$D21,H22*$D22,H23*$D23)*$L$5</f>
-        <v>24056</v>
+        <v>20113</v>
       </c>
       <c r="I34">
         <f>SUM(I2:I10)+SUM(I11:I19)*$L$4+SUM(I20*$D20,I21*$D21,I22*$D22,I23*$D23)*$L$5</f>
-        <v>32254</v>
+        <v>52804</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1252,7 +1268,7 @@
       <c r="D35" s="12"/>
       <c r="E35">
         <f>SUM(E24:E32)+E33*$D33</f>
-        <v>14.9</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="F35">
         <f>SUM(F24:F32)+F33*$D33</f>
@@ -1260,7 +1276,7 @@
       </c>
       <c r="G35">
         <f>SUM(G24:G32)+G33*$D33</f>
-        <v>8.4</v>
+        <v>10.4</v>
       </c>
       <c r="H35">
         <f>SUM(H24:H32)+H33*$D33</f>
@@ -1268,7 +1284,7 @@
       </c>
       <c r="I35">
         <f>SUM(I24:I32)+I33*$D33</f>
-        <v>19.100000000000001</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1280,23 +1296,23 @@
       <c r="D36" s="12"/>
       <c r="E36" s="10">
         <f>E34/SUM($E34:$I34)*$L$2+E35/SUM($E35:$I35)*$L$3</f>
-        <v>0.28492113205004366</v>
+        <v>0.27454828114516844</v>
       </c>
       <c r="F36" s="10">
         <f t="shared" ref="F36:I36" si="0">F34/SUM($E34:$I34)*$L$2+F35/SUM($E35:$I35)*$L$3</f>
-        <v>0.11841318275972078</v>
+        <v>0.10611001027716464</v>
       </c>
       <c r="G36" s="10">
         <f t="shared" si="0"/>
-        <v>0.15417901641210313</v>
+        <v>0.17999263230300261</v>
       </c>
       <c r="H36" s="10">
         <f t="shared" si="0"/>
-        <v>0.16708635392160023</v>
+        <v>0.1300143220283386</v>
       </c>
       <c r="I36" s="10">
         <f t="shared" si="0"/>
-        <v>0.27540031485653216</v>
+        <v>0.30933475424632567</v>
       </c>
     </row>
   </sheetData>
@@ -1314,5 +1330,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/4.项目提交制品/4.8软件工程实验追踪与分析/H-EasySpider-贡献率统计.xlsx
+++ b/4.项目提交制品/4.8软件工程实验追踪与分析/H-EasySpider-贡献率统计.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>赵正阳</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,10 @@
   </si>
   <si>
     <t>代码折合字数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -203,17 +207,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -259,26 +252,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,13 +268,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
@@ -303,25 +283,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -619,14 +593,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E1" t="s">
@@ -646,16 +620,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="1">
         <v>1236</v>
       </c>
@@ -679,12 +653,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="1">
         <v>3020</v>
       </c>
@@ -708,12 +682,12 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -727,12 +701,12 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="1">
         <v>1779</v>
       </c>
@@ -742,10 +716,10 @@
       <c r="G5" s="1">
         <v>1897</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>1354</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>871</v>
       </c>
       <c r="K5" t="s">
@@ -756,35 +730,35 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1">
         <v>2327</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>2631</v>
       </c>
-      <c r="G6" s="5">
-        <v>7178</v>
-      </c>
-      <c r="H6" s="5">
-        <v>4982</v>
-      </c>
-      <c r="I6" s="5">
-        <v>12905</v>
+      <c r="G6" s="4">
+        <v>8061</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10169</v>
+      </c>
+      <c r="I6" s="4">
+        <v>15370</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -792,12 +766,12 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -805,12 +779,12 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -818,14 +792,14 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="2">
-        <v>2092</v>
+        <v>2287</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -833,14 +807,14 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="3">
         <v>1</v>
       </c>
@@ -858,12 +832,12 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="1">
         <v>16</v>
       </c>
@@ -879,12 +853,12 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -892,12 +866,12 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="1">
         <v>2</v>
       </c>
@@ -907,35 +881,37 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>5</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="4">
+        <v>2</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -943,12 +919,12 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -956,12 +932,12 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -969,12 +945,12 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -982,14 +958,14 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="14" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>1.5</v>
       </c>
       <c r="E20" s="3">
@@ -1009,12 +985,12 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>1</v>
       </c>
       <c r="E21" s="1">
@@ -1027,17 +1003,17 @@
       <c r="H21" s="1">
         <v>311</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>2517</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>1</v>
       </c>
       <c r="E22" s="1"/>
@@ -1051,12 +1027,12 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>1</v>
       </c>
       <c r="E23" s="2"/>
@@ -1070,16 +1046,16 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="3">
         <v>1</v>
       </c>
@@ -1089,13 +1065,13 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="5">
+      <c r="D25" s="5"/>
+      <c r="E25" s="4">
         <v>2</v>
       </c>
       <c r="F25" s="1"/>
@@ -1104,12 +1080,12 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1117,12 +1093,12 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="1">
         <v>2</v>
       </c>
@@ -1132,57 +1108,61 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
         <v>2</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1">
+        <v>4</v>
+      </c>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1">
+        <v>3</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1190,14 +1170,14 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1205,128 +1185,154 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="7">
         <v>0.2</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>47</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>15</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <v>42</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <v>50</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>43</v>
+      </c>
+      <c r="F34" s="2">
+        <v>36</v>
+      </c>
+      <c r="G34" s="2">
+        <v>33</v>
+      </c>
+      <c r="H34" s="2">
+        <v>30</v>
+      </c>
+      <c r="I34" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35">
         <f>SUM(E2:E10)+SUM(E11:E19)*$L$4+SUM(E20*$D20,E21*$D21,E22*$D22,E23*$D23)*$L$5</f>
-        <v>47494</v>
-      </c>
-      <c r="F34">
+        <v>47689</v>
+      </c>
+      <c r="F35">
         <f>SUM(F2:F10)+SUM(F11:F19)*$L$4+SUM(F20*$D20,F21*$D21,F22*$D22,F23*$D23)*$L$5</f>
         <v>31513</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <f>SUM(G2:G10)+SUM(G11:G19)*$L$4+SUM(G20*$D20,G21*$D21,G22*$D22,G23*$D23)*$L$5</f>
-        <v>37919</v>
-      </c>
-      <c r="H34">
+        <v>39202</v>
+      </c>
+      <c r="H35">
         <f>SUM(H2:H10)+SUM(H11:H19)*$L$4+SUM(H20*$D20,H21*$D21,H22*$D22,H23*$D23)*$L$5</f>
-        <v>20113</v>
-      </c>
-      <c r="I34">
+        <v>25300</v>
+      </c>
+      <c r="I35">
         <f>SUM(I2:I10)+SUM(I11:I19)*$L$4+SUM(I20*$D20,I21*$D21,I22*$D22,I23*$D23)*$L$5</f>
-        <v>52804</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+        <v>55269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-      <c r="E35">
-        <f>SUM(E24:E32)+E33*$D33</f>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="F35">
-        <f>SUM(F24:F32)+F33*$D33</f>
-        <v>3</v>
-      </c>
-      <c r="G35">
-        <f>SUM(G24:G32)+G33*$D33</f>
-        <v>10.4</v>
-      </c>
-      <c r="H35">
-        <f>SUM(H24:H32)+H33*$D33</f>
-        <v>10</v>
-      </c>
-      <c r="I35">
-        <f>SUM(I24:I32)+I33*$D33</f>
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36">
+        <f>SUM(E24:E32)+E33*$D33+E34*$D34</f>
+        <v>30</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36:I36" si="0">SUM(F24:F32)+F33*$D33+F34*$D34</f>
+        <v>13.2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>41.900000000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="10">
-        <f>E34/SUM($E34:$I34)*$L$2+E35/SUM($E35:$I35)*$L$3</f>
-        <v>0.27454828114516844</v>
-      </c>
-      <c r="F36" s="10">
-        <f t="shared" ref="F36:I36" si="0">F34/SUM($E34:$I34)*$L$2+F35/SUM($E35:$I35)*$L$3</f>
-        <v>0.10611001027716464</v>
-      </c>
-      <c r="G36" s="10">
-        <f t="shared" si="0"/>
-        <v>0.17999263230300261</v>
-      </c>
-      <c r="H36" s="10">
-        <f t="shared" si="0"/>
-        <v>0.1300143220283386</v>
-      </c>
-      <c r="I36" s="10">
-        <f t="shared" si="0"/>
-        <v>0.30933475424632567</v>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="8">
+        <f>E35/SUM($E35:$I35)*$L$2+E36/SUM($E36:$I36)*$L$3</f>
+        <v>0.24268799029947527</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" ref="F37:I37" si="1">F35/SUM($E35:$I35)*$L$2+F36/SUM($E36:$I36)*$L$3</f>
+        <v>0.1332431902685153</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="1"/>
+        <v>0.16812592284641253</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="1"/>
+        <v>0.14547654704861962</v>
+      </c>
+      <c r="I37" s="8">
+        <f t="shared" si="1"/>
+        <v>0.31046634953697722</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A37:D37"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A35:D35"/>
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="B33:B34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4.项目提交制品/4.8软件工程实验追踪与分析/H-EasySpider-贡献率统计.xlsx
+++ b/4.项目提交制品/4.8软件工程实验追踪与分析/H-EasySpider-贡献率统计.xlsx
@@ -583,7 +583,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -646,10 +646,10 @@
         <v>679</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -675,10 +675,10 @@
         <v>1854</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -694,10 +694,10 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L4">
-        <v>200</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -723,10 +723,10 @@
         <v>871</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -776,7 +776,9 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="4">
+        <v>7086</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
@@ -788,7 +790,9 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <v>13755</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -799,7 +803,7 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2">
-        <v>2287</v>
+        <v>5918</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -929,7 +933,9 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
@@ -951,7 +957,9 @@
         <v>15</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2">
+        <v>8</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -969,19 +977,19 @@
         <v>1.5</v>
       </c>
       <c r="E20" s="3">
-        <v>2182</v>
+        <v>2208</v>
       </c>
       <c r="F20" s="3">
         <v>9</v>
       </c>
       <c r="G20" s="3">
-        <v>1387</v>
+        <v>2280</v>
       </c>
       <c r="H20" s="3">
-        <v>231</v>
+        <v>739</v>
       </c>
       <c r="I20" s="3">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -994,17 +1002,17 @@
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F21" s="1">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1">
         <v>311</v>
       </c>
       <c r="I21" s="4">
-        <v>2517</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1023,7 +1031,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1">
-        <v>332</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1042,7 +1050,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1119,10 +1127,10 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H28" s="1">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="I28" s="1"/>
     </row>
@@ -1153,7 +1161,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1">
-        <v>16.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1177,7 +1185,7 @@
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1224,7 +1232,7 @@
         <v>43</v>
       </c>
       <c r="F34" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34" s="2">
         <v>33</v>
@@ -1233,7 +1241,7 @@
         <v>30</v>
       </c>
       <c r="I34" s="2">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1244,24 +1252,24 @@
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
       <c r="E35">
-        <f>SUM(E2:E10)+SUM(E11:E19)*$L$4+SUM(E20*$D20,E21*$D21,E22*$D22,E23*$D23)*$L$5</f>
-        <v>47689</v>
+        <f>SUM(E2:E10)+SUM(E11:E19)*$L$2+SUM(E20*$D20,E21*$D21,E22*$D22,E23*$D23)*$L$3</f>
+        <v>53340</v>
       </c>
       <c r="F35">
-        <f>SUM(F2:F10)+SUM(F11:F19)*$L$4+SUM(F20*$D20,F21*$D21,F22*$D22,F23*$D23)*$L$5</f>
-        <v>31513</v>
+        <f>SUM(F2:F10)+SUM(F11:F19)*$L$2+SUM(F20*$D20,F21*$D21,F22*$D22,F23*$D23)*$L$3</f>
+        <v>31523</v>
       </c>
       <c r="G35">
-        <f>SUM(G2:G10)+SUM(G11:G19)*$L$4+SUM(G20*$D20,G21*$D21,G22*$D22,G23*$D23)*$L$5</f>
-        <v>39202</v>
+        <f>SUM(G2:G10)+SUM(G11:G19)*$L$2+SUM(G20*$D20,G21*$D21,G22*$D22,G23*$D23)*$L$3</f>
+        <v>52597</v>
       </c>
       <c r="H35">
-        <f>SUM(H2:H10)+SUM(H11:H19)*$L$4+SUM(H20*$D20,H21*$D21,H22*$D22,H23*$D23)*$L$5</f>
-        <v>25300</v>
+        <f>SUM(H2:H10)+SUM(H11:H19)*$L$2+SUM(H20*$D20,H21*$D21,H22*$D22,H23*$D23)*$L$3</f>
+        <v>46675</v>
       </c>
       <c r="I35">
-        <f>SUM(I2:I10)+SUM(I11:I19)*$L$4+SUM(I20*$D20,I21*$D21,I22*$D22,I23*$D23)*$L$5</f>
-        <v>55269</v>
+        <f>SUM(I2:I10)+SUM(I11:I19)*$L$2+SUM(I20*$D20,I21*$D21,I22*$D22,I23*$D23)*$L$3</f>
+        <v>64540</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1273,23 +1281,23 @@
       <c r="D36" s="10"/>
       <c r="E36">
         <f>SUM(E24:E32)+E33*$D33+E34*$D34</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F36">
         <f t="shared" ref="F36:I36" si="0">SUM(F24:F32)+F33*$D33+F34*$D34</f>
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>41.900000000000006</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1300,24 +1308,24 @@
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
       <c r="E37" s="8">
-        <f>E35/SUM($E35:$I35)*$L$2+E36/SUM($E36:$I36)*$L$3</f>
-        <v>0.24268799029947527</v>
+        <f>E35/SUM($E35:$I35)*$L$4+E36/SUM($E36:$I36)*$L$5</f>
+        <v>0.22121900484331664</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" ref="F37:I37" si="1">F35/SUM($E35:$I35)*$L$2+F36/SUM($E36:$I36)*$L$3</f>
-        <v>0.1332431902685153</v>
+        <f>F35/SUM($E35:$I35)*$L$4+F36/SUM($E36:$I36)*$L$5</f>
+        <v>0.11117604184530955</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="1"/>
-        <v>0.16812592284641253</v>
+        <f>G35/SUM($E35:$I35)*$L$4+G36/SUM($E36:$I36)*$L$5</f>
+        <v>0.1903133223732843</v>
       </c>
       <c r="H37" s="8">
-        <f t="shared" si="1"/>
-        <v>0.14547654704861962</v>
+        <f>H35/SUM($E35:$I35)*$L$4+H36/SUM($E36:$I36)*$L$5</f>
+        <v>0.17289150882027687</v>
       </c>
       <c r="I37" s="8">
-        <f t="shared" si="1"/>
-        <v>0.31046634953697722</v>
+        <f>I35/SUM($E35:$I35)*$L$4+I36/SUM($E36:$I36)*$L$5</f>
+        <v>0.30440012211781264</v>
       </c>
     </row>
   </sheetData>

--- a/4.项目提交制品/4.8软件工程实验追踪与分析/H-EasySpider-贡献率统计.xlsx
+++ b/4.项目提交制品/4.8软件工程实验追踪与分析/H-EasySpider-贡献率统计.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>赵正阳</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,14 @@
   </si>
   <si>
     <t>实验5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,12 +586,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -797,317 +805,315 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2">
+      <c r="D10" s="5"/>
+      <c r="E10" s="1">
         <v>5918</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
-      <c r="B11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3</v>
-      </c>
-      <c r="G11" s="3">
-        <v>4</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="1">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1">
-        <v>9</v>
-      </c>
-      <c r="H12" s="1">
-        <v>14</v>
-      </c>
-      <c r="I12" s="1"/>
+      <c r="B12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="1">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1">
         <v>9</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>14</v>
+      </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="1">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>5</v>
-      </c>
-      <c r="I14" s="4">
-        <v>5</v>
-      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="4">
+      <c r="E15" s="1">
         <v>2</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1">
-        <v>3</v>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1">
-        <v>10</v>
-      </c>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="2">
-        <v>8</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
-      <c r="B20" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2208</v>
-      </c>
-      <c r="F20" s="3">
-        <v>9</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2280</v>
-      </c>
-      <c r="H20" s="3">
-        <v>739</v>
-      </c>
-      <c r="I20" s="3">
-        <v>264</v>
-      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="1">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>54</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1268</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1">
-        <v>311</v>
-      </c>
-      <c r="I21" s="4">
-        <v>2505</v>
-      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2208</v>
+      </c>
+      <c r="F22" s="3">
+        <v>9</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2280</v>
+      </c>
+      <c r="H22" s="3">
+        <v>739</v>
+      </c>
+      <c r="I22" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>54</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1268</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1">
+        <v>311</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D24" s="5">
         <v>1</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1">
         <v>768</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="2" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D25" s="6">
         <v>1</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
         <v>405</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2">
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="3">
+      <c r="D26" s="7"/>
+      <c r="E26" s="3">
         <v>1</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>2</v>
       </c>
       <c r="F27" s="1"/>
@@ -1119,32 +1125,26 @@
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="1">
-        <v>3</v>
-      </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1">
-        <v>8</v>
-      </c>
-      <c r="H28" s="1">
-        <v>5.5</v>
-      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1">
-        <v>3</v>
-      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1153,194 +1153,241 @@
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30" s="5"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1">
-        <v>25.5</v>
-      </c>
+      <c r="G30" s="1">
+        <v>8</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1">
+        <v>4.5</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="2">
-        <v>5</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="1">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D36" s="7">
         <v>0.2</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E36" s="3">
         <v>47</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F36" s="3">
         <v>15</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G36" s="3">
         <v>42</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H36" s="3">
         <v>50</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I36" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="2" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D37" s="6">
         <v>0.2</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E37" s="2">
         <v>43</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F37" s="2">
         <v>35</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G37" s="2">
         <v>33</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H37" s="2">
         <v>30</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I37" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35">
-        <f>SUM(E2:E10)+SUM(E11:E19)*$L$2+SUM(E20*$D20,E21*$D21,E22*$D22,E23*$D23)*$L$3</f>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38">
+        <f>SUM(E2:E11)+SUM(E12:E21)*$L$2+SUM(E22*$D22,E23*$D23,E24*$D24,E25*$D25)*$L$3</f>
         <v>53340</v>
       </c>
-      <c r="F35">
-        <f>SUM(F2:F10)+SUM(F11:F19)*$L$2+SUM(F20*$D20,F21*$D21,F22*$D22,F23*$D23)*$L$3</f>
-        <v>31523</v>
-      </c>
-      <c r="G35">
-        <f>SUM(G2:G10)+SUM(G11:G19)*$L$2+SUM(G20*$D20,G21*$D21,G22*$D22,G23*$D23)*$L$3</f>
+      <c r="F38">
+        <f t="shared" ref="F38:I38" si="0">SUM(F2:F11)+SUM(F12:F21)*$L$2+SUM(F22*$D22,F23*$D23,F24*$D24,F25*$D25)*$L$3</f>
+        <v>33523</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
         <v>52597</v>
       </c>
-      <c r="H35">
-        <f>SUM(H2:H10)+SUM(H11:H19)*$L$2+SUM(H20*$D20,H21*$D21,H22*$D22,H23*$D23)*$L$3</f>
+      <c r="H38">
+        <f t="shared" si="0"/>
         <v>46675</v>
       </c>
-      <c r="I35">
-        <f>SUM(I2:I10)+SUM(I11:I19)*$L$2+SUM(I20*$D20,I21*$D21,I22*$D22,I23*$D23)*$L$3</f>
+      <c r="I38">
+        <f t="shared" si="0"/>
         <v>64540</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36">
-        <f>SUM(E24:E32)+E33*$D33+E34*$D34</f>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39">
+        <f>SUM(E26:E35)+E36*$D36+E37*$D37</f>
         <v>31</v>
       </c>
-      <c r="F36">
-        <f t="shared" ref="F36:I36" si="0">SUM(F24:F32)+F33*$D33+F34*$D34</f>
-        <v>13</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="0"/>
+      <c r="F39">
+        <f t="shared" ref="F39:I39" si="1">SUM(F26:F35)+F36*$D36+F37*$D37</f>
+        <v>14.5</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="H36">
-        <f t="shared" si="0"/>
+      <c r="H39">
+        <f t="shared" si="1"/>
         <v>21.5</v>
       </c>
-      <c r="I36">
-        <f t="shared" si="0"/>
+      <c r="I39">
+        <f t="shared" si="1"/>
         <v>47.5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="8">
-        <f>E35/SUM($E35:$I35)*$L$4+E36/SUM($E36:$I36)*$L$5</f>
-        <v>0.22121900484331664</v>
-      </c>
-      <c r="F37" s="8">
-        <f>F35/SUM($E35:$I35)*$L$4+F36/SUM($E36:$I36)*$L$5</f>
-        <v>0.11117604184530955</v>
-      </c>
-      <c r="G37" s="8">
-        <f>G35/SUM($E35:$I35)*$L$4+G36/SUM($E36:$I36)*$L$5</f>
-        <v>0.1903133223732843</v>
-      </c>
-      <c r="H37" s="8">
-        <f>H35/SUM($E35:$I35)*$L$4+H36/SUM($E36:$I36)*$L$5</f>
-        <v>0.17289150882027687</v>
-      </c>
-      <c r="I37" s="8">
-        <f>I35/SUM($E35:$I35)*$L$4+I36/SUM($E36:$I36)*$L$5</f>
-        <v>0.30440012211781264</v>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="8">
+        <f>E38/SUM($E38:$I38)*$L$4+E39/SUM($E39:$I39)*$L$5</f>
+        <v>0.21912001233034445</v>
+      </c>
+      <c r="F40" s="8">
+        <f>F38/SUM($E38:$I38)*$L$4+F39/SUM($E39:$I39)*$L$5</f>
+        <v>0.1195927359764998</v>
+      </c>
+      <c r="G40" s="8">
+        <f>G38/SUM($E38:$I38)*$L$4+G39/SUM($E39:$I39)*$L$5</f>
+        <v>0.18854710463566551</v>
+      </c>
+      <c r="H40" s="8">
+        <f>H38/SUM($E38:$I38)*$L$4+H39/SUM($E39:$I39)*$L$5</f>
+        <v>0.17128045187085778</v>
+      </c>
+      <c r="I40" s="8">
+        <f>I38/SUM($E38:$I38)*$L$4+I39/SUM($E39:$I39)*$L$5</f>
+        <v>0.30145969518663246</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A24:A34"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="B26:B35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4.项目提交制品/4.8软件工程实验追踪与分析/H-EasySpider-贡献率统计.xlsx
+++ b/4.项目提交制品/4.8软件工程实验追踪与分析/H-EasySpider-贡献率统计.xlsx
@@ -589,9 +589,9 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -811,7 +811,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="1">
-        <v>5918</v>
+        <v>6016</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -825,11 +825,21 @@
         <v>37</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="E11" s="2">
+        <v>2985</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3217</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2826</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2333</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1744</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
@@ -993,11 +1003,15 @@
         <v>38</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
@@ -1233,7 +1247,9 @@
         <v>38</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1300,23 +1316,23 @@
       <c r="D38" s="10"/>
       <c r="E38">
         <f>SUM(E2:E11)+SUM(E12:E21)*$L$2+SUM(E22*$D22,E23*$D23,E24*$D24,E25*$D25)*$L$3</f>
-        <v>53340</v>
+        <v>56623</v>
       </c>
       <c r="F38">
         <f t="shared" ref="F38:I38" si="0">SUM(F2:F11)+SUM(F12:F21)*$L$2+SUM(F22*$D22,F23*$D23,F24*$D24,F25*$D25)*$L$3</f>
-        <v>33523</v>
+        <v>36740</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>52597</v>
+        <v>55423</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>46675</v>
+        <v>49008</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>64540</v>
+        <v>66484</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -1328,7 +1344,7 @@
       <c r="D39" s="10"/>
       <c r="E39">
         <f>SUM(E26:E35)+E36*$D36+E37*$D37</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F39">
         <f t="shared" ref="F39:I39" si="1">SUM(F26:F35)+F36*$D36+F37*$D37</f>
@@ -1356,23 +1372,23 @@
       <c r="D40" s="10"/>
       <c r="E40" s="8">
         <f>E38/SUM($E38:$I38)*$L$4+E39/SUM($E39:$I39)*$L$5</f>
-        <v>0.21912001233034445</v>
+        <v>0.22265118726989791</v>
       </c>
       <c r="F40" s="8">
         <f>F38/SUM($E38:$I38)*$L$4+F39/SUM($E39:$I39)*$L$5</f>
-        <v>0.1195927359764998</v>
+        <v>0.12185670744976101</v>
       </c>
       <c r="G40" s="8">
         <f>G38/SUM($E38:$I38)*$L$4+G39/SUM($E39:$I39)*$L$5</f>
-        <v>0.18854710463566551</v>
+        <v>0.18788987600110299</v>
       </c>
       <c r="H40" s="8">
         <f>H38/SUM($E38:$I38)*$L$4+H39/SUM($E39:$I39)*$L$5</f>
-        <v>0.17128045187085778</v>
+        <v>0.17033787279520202</v>
       </c>
       <c r="I40" s="8">
         <f>I38/SUM($E38:$I38)*$L$4+I39/SUM($E39:$I39)*$L$5</f>
-        <v>0.30145969518663246</v>
+        <v>0.29726435648403604</v>
       </c>
     </row>
   </sheetData>

--- a/4.项目提交制品/4.8软件工程实验追踪与分析/H-EasySpider-贡献率统计.xlsx
+++ b/4.项目提交制品/4.8软件工程实验追踪与分析/H-EasySpider-贡献率统计.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>赵正阳</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,35 +142,51 @@
     <t>工作量2权重</t>
   </si>
   <si>
+    <t>总工作量1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总工作量2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表折合字数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码折合字数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作量权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互评得分权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互评得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>贡献率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总工作量1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总工作量2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图表折合字数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码折合字数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验总结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验总结</t>
+    <t>工作量比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +219,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -260,13 +276,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -304,6 +344,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,12 +635,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -654,7 +703,7 @@
         <v>679</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2">
         <v>200</v>
@@ -683,7 +732,7 @@
         <v>1854</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3">
         <v>10</v>
@@ -705,7 +754,7 @@
         <v>29</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -734,7 +783,8 @@
         <v>30</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <f>1-L4</f>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -758,6 +808,12 @@
       </c>
       <c r="I6" s="4">
         <v>15370</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -772,6 +828,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7">
+        <f>1-L6</f>
+        <v>0.30000000000000004</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
@@ -822,7 +885,7 @@
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="2">
@@ -1000,7 +1063,7 @@
       <c r="A21" s="9"/>
       <c r="B21" s="11"/>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="2">
@@ -1244,7 +1307,7 @@
       <c r="A35" s="9"/>
       <c r="B35" s="11"/>
       <c r="C35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="2">
@@ -1286,7 +1349,7 @@
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="6">
         <v>0.2</v>
@@ -1308,95 +1371,147 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38">
-        <f>SUM(E2:E11)+SUM(E12:E21)*$L$2+SUM(E22*$D22,E23*$D23,E24*$D24,E25*$D25)*$L$3</f>
-        <v>56623</v>
-      </c>
-      <c r="F38">
-        <f t="shared" ref="F38:I38" si="0">SUM(F2:F11)+SUM(F12:F21)*$L$2+SUM(F22*$D22,F23*$D23,F24*$D24,F25*$D25)*$L$3</f>
-        <v>36740</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="0"/>
-        <v>55423</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="0"/>
-        <v>49008</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="0"/>
-        <v>66484</v>
+      <c r="A38" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="13">
+        <v>97</v>
+      </c>
+      <c r="F38" s="13">
+        <v>94</v>
+      </c>
+      <c r="G38" s="13">
+        <v>95</v>
+      </c>
+      <c r="H38" s="13">
+        <v>98</v>
+      </c>
+      <c r="I38" s="13">
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
       <c r="E39">
-        <f>SUM(E26:E35)+E36*$D36+E37*$D37</f>
-        <v>32</v>
+        <f>SUM(E2:E11)+SUM(E12:E21)*$L$2+SUM(E22*$D22,E23*$D23,E24*$D24,E25*$D25)*$L$3</f>
+        <v>56623</v>
       </c>
       <c r="F39">
-        <f t="shared" ref="F39:I39" si="1">SUM(F26:F35)+F36*$D36+F37*$D37</f>
-        <v>14.5</v>
+        <f t="shared" ref="F39:I39" si="0">SUM(F2:F11)+SUM(F12:F21)*$L$2+SUM(F22*$D22,F23*$D23,F24*$D24,F25*$D25)*$L$3</f>
+        <v>36740</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>55423</v>
       </c>
       <c r="H39">
-        <f t="shared" si="1"/>
-        <v>21.5</v>
+        <f t="shared" si="0"/>
+        <v>49008</v>
       </c>
       <c r="I39">
-        <f t="shared" si="1"/>
-        <v>47.5</v>
+        <f t="shared" si="0"/>
+        <v>66484</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="8">
-        <f>E38/SUM($E38:$I38)*$L$4+E39/SUM($E39:$I39)*$L$5</f>
-        <v>0.22265118726989791</v>
-      </c>
-      <c r="F40" s="8">
-        <f>F38/SUM($E38:$I38)*$L$4+F39/SUM($E39:$I39)*$L$5</f>
-        <v>0.12185670744976101</v>
-      </c>
-      <c r="G40" s="8">
-        <f>G38/SUM($E38:$I38)*$L$4+G39/SUM($E39:$I39)*$L$5</f>
-        <v>0.18788987600110299</v>
-      </c>
-      <c r="H40" s="8">
-        <f>H38/SUM($E38:$I38)*$L$4+H39/SUM($E39:$I39)*$L$5</f>
-        <v>0.17033787279520202</v>
-      </c>
-      <c r="I40" s="8">
-        <f>I38/SUM($E38:$I38)*$L$4+I39/SUM($E39:$I39)*$L$5</f>
-        <v>0.29726435648403604</v>
+      <c r="E40">
+        <f>SUM(E26:E35)+E36*$D36+E37*$D37</f>
+        <v>32</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40:I40" si="1">SUM(F26:F35)+F36*$D36+F37*$D37</f>
+        <v>14.5</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>21.5</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="8">
+        <f>E39/SUM($E39:$I39)*$L$4+E40/SUM($E40:$I40)*$L$5</f>
+        <v>0.21929288961468019</v>
+      </c>
+      <c r="F41" s="8">
+        <f>F39/SUM($E39:$I39)*$L$4+F40/SUM($E40:$I40)*$L$5</f>
+        <v>0.12872213411197589</v>
+      </c>
+      <c r="G41" s="8">
+        <f>G39/SUM($E39:$I39)*$L$4+G40/SUM($E40:$I40)*$L$5</f>
+        <v>0.1966198336217608</v>
+      </c>
+      <c r="H41" s="8">
+        <f>H39/SUM($E39:$I39)*$L$4+H40/SUM($E40:$I40)*$L$5</f>
+        <v>0.17637915909739832</v>
+      </c>
+      <c r="I41" s="8">
+        <f>I39/SUM($E39:$I39)*$L$4+I40/SUM($E40:$I40)*$L$5</f>
+        <v>0.2789859835541848</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="8">
+        <f>E41*$L$6+E38/SUM($E38:$I38)*$L$7</f>
+        <v>0.21413002273027612</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" ref="F42:I42" si="2">F41*$L$6+F38/SUM($E38:$I38)*$L$7</f>
+        <v>0.14885549387838312</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="2"/>
+        <v>0.19700888353523258</v>
+      </c>
+      <c r="H42" s="8">
+        <f t="shared" si="2"/>
+        <v>0.18471541136817882</v>
+      </c>
+      <c r="I42" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25529018848792934</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A41:D41"/>
     <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A39:D39"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="A26:A37"/>
@@ -1404,6 +1519,7 @@
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="B12:B21"/>
     <mergeCell ref="B26:B35"/>
+    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4.项目提交制品/4.8软件工程实验追踪与分析/H-EasySpider-贡献率统计.xlsx
+++ b/4.项目提交制品/4.8软件工程实验追踪与分析/H-EasySpider-贡献率统计.xlsx
@@ -334,6 +334,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,12 +351,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -650,10 +650,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
@@ -677,10 +677,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -710,8 +710,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -739,8 +739,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
@@ -758,8 +758,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
@@ -788,8 +788,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
@@ -813,12 +813,12 @@
         <v>38</v>
       </c>
       <c r="L6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
@@ -833,12 +833,12 @@
       </c>
       <c r="L7">
         <f>1-L6</f>
-        <v>0.30000000000000004</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
@@ -852,8 +852,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
@@ -867,8 +867,8 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
@@ -882,8 +882,8 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
@@ -905,8 +905,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -930,8 +930,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -951,8 +951,8 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -964,8 +964,8 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -987,8 +987,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1004,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1017,8 +1017,8 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1032,8 +1032,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1045,8 +1045,8 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1060,8 +1060,8 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1077,8 +1077,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1104,8 +1104,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1127,8 +1127,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1146,8 +1146,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="2" t="s">
         <v>27</v>
       </c>
@@ -1165,10 +1165,10 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1184,8 +1184,8 @@
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1199,8 +1199,8 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
@@ -1212,8 +1212,8 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1227,8 +1227,8 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
@@ -1246,8 +1246,8 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1261,8 +1261,8 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
@@ -1276,8 +1276,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="1" t="s">
         <v>14</v>
       </c>
@@ -1289,8 +1289,8 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="1" t="s">
         <v>15</v>
       </c>
@@ -1304,8 +1304,8 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="2" t="s">
         <v>37</v>
       </c>
@@ -1319,8 +1319,8 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -1346,8 +1346,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="2" t="s">
         <v>35</v>
       </c>
@@ -1375,31 +1375,31 @@
         <v>40</v>
       </c>
       <c r="B38" s="15"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="13">
-        <v>97</v>
-      </c>
-      <c r="F38" s="13">
-        <v>94</v>
-      </c>
-      <c r="G38" s="13">
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="9">
+        <v>96</v>
+      </c>
+      <c r="F38" s="9">
         <v>95</v>
       </c>
-      <c r="H38" s="13">
-        <v>98</v>
-      </c>
-      <c r="I38" s="13">
+      <c r="G38" s="9">
+        <v>95</v>
+      </c>
+      <c r="H38" s="9">
         <v>96</v>
       </c>
+      <c r="I38" s="9">
+        <v>95</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12"/>
       <c r="E39">
         <f>SUM(E2:E11)+SUM(E12:E21)*$L$2+SUM(E22*$D22,E23*$D23,E24*$D24,E25*$D25)*$L$3</f>
         <v>56623</v>
@@ -1422,12 +1422,12 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
       <c r="E40">
         <f>SUM(E26:E35)+E36*$D36+E37*$D37</f>
         <v>32</v>
@@ -1450,12 +1450,12 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
       <c r="E41" s="8">
         <f>E39/SUM($E39:$I39)*$L$4+E40/SUM($E40:$I40)*$L$5</f>
         <v>0.21929288961468019</v>
@@ -1478,31 +1478,31 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
       <c r="E42" s="8">
         <f>E41*$L$6+E38/SUM($E38:$I38)*$L$7</f>
-        <v>0.21413002273027612</v>
+        <v>0.21027537562495016</v>
       </c>
       <c r="F42" s="8">
         <f t="shared" ref="F42:I42" si="2">F41*$L$6+F38/SUM($E38:$I38)*$L$7</f>
-        <v>0.14885549387838312</v>
+        <v>0.1639417798442479</v>
       </c>
       <c r="G42" s="8">
         <f t="shared" si="2"/>
-        <v>0.19700888353523258</v>
+        <v>0.19789062959914036</v>
       </c>
       <c r="H42" s="8">
         <f t="shared" si="2"/>
-        <v>0.18471541136817882</v>
+        <v>0.18881851036630923</v>
       </c>
       <c r="I42" s="8">
         <f t="shared" si="2"/>
-        <v>0.25529018848792934</v>
+        <v>0.23907370456535237</v>
       </c>
     </row>
   </sheetData>
